--- a/coffe dataset.xlsx
+++ b/coffe dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amyly/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amyly/Desktop/coffee_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A66AB8-29CB-DB45-9089-C1128E768BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A8D88-C248-0A4E-9CD8-6E28F5D90DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{EFDCB1F2-13AD-FA43-9833-34E3B853D0E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="203">
   <si>
     <t>id</t>
   </si>
@@ -395,9 +395,6 @@
     <t>Finagro</t>
   </si>
   <si>
-    <t>Tazania</t>
-  </si>
-  <si>
     <t>jasmine, elderflower, green apple, watermelon</t>
   </si>
   <si>
@@ -447,6 +444,207 @@
   </si>
   <si>
     <t>everyday</t>
+  </si>
+  <si>
+    <t>Jigesha</t>
+  </si>
+  <si>
+    <t>twin peaks</t>
+  </si>
+  <si>
+    <t>nectarine, honeydew, blueberry, lemon blossom</t>
+  </si>
+  <si>
+    <t>Salsipuedes</t>
+  </si>
+  <si>
+    <t>Castillo, Cauca</t>
+  </si>
+  <si>
+    <t>Columbian</t>
+  </si>
+  <si>
+    <t>Geisha mixed</t>
+  </si>
+  <si>
+    <t>strawberry jam, floral, herbal</t>
+  </si>
+  <si>
+    <t>oko</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Sigararutang, Ateng</t>
+  </si>
+  <si>
+    <t>tropical</t>
+  </si>
+  <si>
+    <t>citrus, berry, passionfruit</t>
+  </si>
+  <si>
+    <t>Mustefa abalulessa</t>
+  </si>
+  <si>
+    <t>74110, 74165</t>
+  </si>
+  <si>
+    <t>mango, apple pie, honeycomb</t>
+  </si>
+  <si>
+    <t>Umoja</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Bourbon, Kent</t>
+  </si>
+  <si>
+    <t>pulpy fruit, red apple, cherry, chocolate</t>
+  </si>
+  <si>
+    <t>Dikitu</t>
+  </si>
+  <si>
+    <t>blueberry, apricot, nutmeg</t>
+  </si>
+  <si>
+    <t>acoffee</t>
+  </si>
+  <si>
+    <t>Kurume Welicho</t>
+  </si>
+  <si>
+    <t>sweet, lemon blossom, honeydew</t>
+  </si>
+  <si>
+    <t>Burundi Yagikawa</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourbon </t>
+  </si>
+  <si>
+    <t>cherry, tea like, fruit</t>
+  </si>
+  <si>
+    <t>orange blossom, sweet</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>Jahaira Cardona</t>
+  </si>
+  <si>
+    <t>white grape, vanilla, clean</t>
+  </si>
+  <si>
+    <t>dukes</t>
+  </si>
+  <si>
+    <t>Chirinos</t>
+  </si>
+  <si>
+    <t>Caturra, Bourbon, Catimor</t>
+  </si>
+  <si>
+    <t>tinned pineapple, kiwi, golden syrup</t>
+  </si>
+  <si>
+    <t>Las Nubes</t>
+  </si>
+  <si>
+    <t>Pink Bourbon</t>
+  </si>
+  <si>
+    <t>cocoa, dried cranberry, grapefruit, dates</t>
+  </si>
+  <si>
+    <t>KAMUNYAKA</t>
+  </si>
+  <si>
+    <t>orange blossom, red apple, brown sugar</t>
+  </si>
+  <si>
+    <t>murky</t>
+  </si>
+  <si>
+    <t>Alemayehu Sali</t>
+  </si>
+  <si>
+    <t>Dega, Kurume</t>
+  </si>
+  <si>
+    <t>jasmine, elderflower, nectarine, honey</t>
+  </si>
+  <si>
+    <t>small batch</t>
+  </si>
+  <si>
+    <t>Uraga</t>
+  </si>
+  <si>
+    <t>floral, white nectarine, nashi pear</t>
+  </si>
+  <si>
+    <t>Elia Angel</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Typica</t>
+  </si>
+  <si>
+    <t>fieldwork</t>
+  </si>
+  <si>
+    <t>hazelnut praline, brown sugar, candied orange</t>
+  </si>
+  <si>
+    <t>Finca Rosma</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Bourbon, Caturra</t>
+  </si>
+  <si>
+    <t>jam donut, cacao, valencia orange</t>
+  </si>
+  <si>
+    <t>Carmen Rosa</t>
+  </si>
+  <si>
+    <t>balanced, plum, panela sugar</t>
+  </si>
+  <si>
+    <t>Yuan yi yuan</t>
+  </si>
+  <si>
+    <t>rose, lychee, peach iced tea</t>
+  </si>
+  <si>
+    <t>Deri Fahmi</t>
+  </si>
+  <si>
+    <t>floral, earl grey, lavender, blueberry</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>acidic</t>
   </si>
 </sst>
 </file>
@@ -798,21 +996,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4A6D9-48F1-D140-B798-87554D25210D}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1124,7 +1322,7 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -1666,13 +1864,13 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
         <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -1695,7 +1893,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1707,7 +1905,7 @@
         <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -1742,7 +1940,7 @@
         <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -1774,10 +1972,10 @@
         <v>96</v>
       </c>
       <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
         <v>124</v>
-      </c>
-      <c r="F28" t="s">
-        <v>125</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -1800,25 +1998,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
         <v>126</v>
-      </c>
-      <c r="E29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -1835,7 +2033,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1847,13 +2045,13 @@
         <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -1870,7 +2068,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -1879,16 +2077,16 @@
         <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
         <v>135</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>136</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -1898,6 +2096,723 @@
       </c>
       <c r="K31" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>201</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>166</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>178</v>
+      </c>
+      <c r="K43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>178</v>
+      </c>
+      <c r="K45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s">
+        <v>188</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
